--- a/LeetCode.xlsx
+++ b/LeetCode.xlsx
@@ -22560,8 +22560,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:I136"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
-      <selection activeCell="A22" sqref="A22"/>
+    <sheetView tabSelected="1" topLeftCell="A67" zoomScale="110" zoomScaleNormal="110" zoomScalePageLayoutView="110" workbookViewId="0">
+      <selection activeCell="B85" sqref="B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -23520,7 +23520,7 @@
     </row>
     <row r="53" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A53" s="9"/>
-      <c r="B53" s="9">
+      <c r="B53" s="19">
         <v>57</v>
       </c>
       <c r="C53" s="1" t="s">
@@ -24128,7 +24128,7 @@
     </row>
     <row r="85" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A85" s="9"/>
-      <c r="B85" s="9">
+      <c r="B85" s="19">
         <v>71</v>
       </c>
       <c r="C85" s="1" t="s">
@@ -24850,7 +24850,7 @@
     </row>
     <row r="123" spans="1:7" ht="16" x14ac:dyDescent="0.2">
       <c r="A123" s="9"/>
-      <c r="B123" s="9">
+      <c r="B123" s="19">
         <v>572</v>
       </c>
       <c r="C123" s="1" t="s">
